--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Bmp2-Bmpr1b.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Bmp2-Bmpr1b.xlsx
@@ -540,46 +540,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.893348999999999</v>
+        <v>5.898379333333334</v>
       </c>
       <c r="H2">
-        <v>11.680047</v>
+        <v>17.695138</v>
       </c>
       <c r="I2">
-        <v>0.6666012053219901</v>
+        <v>0.7828421971437433</v>
       </c>
       <c r="J2">
-        <v>0.6666012053219902</v>
+        <v>0.7828421971437433</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.039133</v>
+        <v>0.07259900000000001</v>
       </c>
       <c r="N2">
-        <v>0.117399</v>
+        <v>0.217797</v>
       </c>
       <c r="O2">
-        <v>0.00872147833139909</v>
+        <v>0.0162094769588191</v>
       </c>
       <c r="P2">
-        <v>0.00872147833139909</v>
+        <v>0.0162094769588191</v>
       </c>
       <c r="Q2">
-        <v>0.152358426417</v>
+        <v>0.4282164412206668</v>
       </c>
       <c r="R2">
-        <v>1.371225837753</v>
+        <v>3.853947970986</v>
       </c>
       <c r="S2">
-        <v>0.005813747967900252</v>
+        <v>0.01268946255699283</v>
       </c>
       <c r="T2">
-        <v>0.005813747967900253</v>
+        <v>0.01268946255699283</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.893348999999999</v>
+        <v>5.898379333333334</v>
       </c>
       <c r="H3">
-        <v>11.680047</v>
+        <v>17.695138</v>
       </c>
       <c r="I3">
-        <v>0.6666012053219901</v>
+        <v>0.7828421971437433</v>
       </c>
       <c r="J3">
-        <v>0.6666012053219902</v>
+        <v>0.7828421971437433</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>12.561996</v>
       </c>
       <c r="O3">
-        <v>0.933220691088698</v>
+        <v>0.9349228167457665</v>
       </c>
       <c r="P3">
-        <v>0.9332206910886979</v>
+        <v>0.9349228167457664</v>
       </c>
       <c r="Q3">
-        <v>16.302744854868</v>
+        <v>24.69847253060534</v>
       </c>
       <c r="R3">
-        <v>146.724703693812</v>
+        <v>222.286252775448</v>
       </c>
       <c r="S3">
-        <v>0.6220860375111467</v>
+        <v>0.731897032021073</v>
       </c>
       <c r="T3">
-        <v>0.6220860375111467</v>
+        <v>0.731897032021073</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.893348999999999</v>
+        <v>5.898379333333334</v>
       </c>
       <c r="H4">
-        <v>11.680047</v>
+        <v>17.695138</v>
       </c>
       <c r="I4">
-        <v>0.6666012053219901</v>
+        <v>0.7828421971437433</v>
       </c>
       <c r="J4">
-        <v>0.6666012053219902</v>
+        <v>0.7828421971437433</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.2605036666666666</v>
+        <v>0.2188686666666667</v>
       </c>
       <c r="N4">
-        <v>0.781511</v>
+        <v>0.656606</v>
       </c>
       <c r="O4">
-        <v>0.05805783057990301</v>
+        <v>0.04886770629541442</v>
       </c>
       <c r="P4">
-        <v>0.05805783057990301</v>
+        <v>0.04886770629541441</v>
       </c>
       <c r="Q4">
-        <v>1.014231690113</v>
+        <v>1.290970420180889</v>
       </c>
       <c r="R4">
-        <v>9.128085211016998</v>
+        <v>11.618733781628</v>
       </c>
       <c r="S4">
-        <v>0.03870141984294324</v>
+        <v>0.03825570256567735</v>
       </c>
       <c r="T4">
-        <v>0.03870141984294324</v>
+        <v>0.03825570256567735</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,46 +726,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.7963256666666667</v>
+        <v>0.7963256666666666</v>
       </c>
       <c r="H5">
         <v>2.388977</v>
       </c>
       <c r="I5">
-        <v>0.1363431968798167</v>
+        <v>0.1056895969732402</v>
       </c>
       <c r="J5">
-        <v>0.1363431968798167</v>
+        <v>0.1056895969732402</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.039133</v>
+        <v>0.07259900000000001</v>
       </c>
       <c r="N5">
-        <v>0.117399</v>
+        <v>0.217797</v>
       </c>
       <c r="O5">
-        <v>0.00872147833139909</v>
+        <v>0.0162094769588191</v>
       </c>
       <c r="P5">
-        <v>0.00872147833139909</v>
+        <v>0.0162094769588191</v>
       </c>
       <c r="Q5">
-        <v>0.03116261231366667</v>
+        <v>0.05781244707433333</v>
       </c>
       <c r="R5">
-        <v>0.280463510823</v>
+        <v>0.520312023669</v>
       </c>
       <c r="S5">
-        <v>0.001189114237221001</v>
+        <v>0.001713173086924615</v>
       </c>
       <c r="T5">
-        <v>0.001189114237221002</v>
+        <v>0.001713173086924614</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.7963256666666667</v>
+        <v>0.7963256666666666</v>
       </c>
       <c r="H6">
         <v>2.388977</v>
       </c>
       <c r="I6">
-        <v>0.1363431968798167</v>
+        <v>0.1056895969732402</v>
       </c>
       <c r="J6">
-        <v>0.1363431968798167</v>
+        <v>0.1056895969732402</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -812,10 +812,10 @@
         <v>12.561996</v>
       </c>
       <c r="O6">
-        <v>0.933220691088698</v>
+        <v>0.9349228167457665</v>
       </c>
       <c r="P6">
-        <v>0.9332206910886979</v>
+        <v>0.9349228167457664</v>
       </c>
       <c r="Q6">
         <v>3.334479946454667</v>
@@ -824,10 +824,10 @@
         <v>30.010319518092</v>
       </c>
       <c r="S6">
-        <v>0.1272382924174249</v>
+        <v>0.0988116157029466</v>
       </c>
       <c r="T6">
-        <v>0.127238292417425</v>
+        <v>0.09881161570294657</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,16 +850,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.7963256666666667</v>
+        <v>0.7963256666666666</v>
       </c>
       <c r="H7">
         <v>2.388977</v>
       </c>
       <c r="I7">
-        <v>0.1363431968798167</v>
+        <v>0.1056895969732402</v>
       </c>
       <c r="J7">
-        <v>0.1363431968798167</v>
+        <v>0.1056895969732402</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.2605036666666666</v>
+        <v>0.2188686666666667</v>
       </c>
       <c r="N7">
-        <v>0.781511</v>
+        <v>0.656606</v>
       </c>
       <c r="O7">
-        <v>0.05805783057990301</v>
+        <v>0.04886770629541442</v>
       </c>
       <c r="P7">
-        <v>0.05805783057990301</v>
+        <v>0.04886770629541441</v>
       </c>
       <c r="Q7">
-        <v>0.2074457560274444</v>
+        <v>0.1742907368957778</v>
       </c>
       <c r="R7">
-        <v>1.867011804247</v>
+        <v>1.568616632062</v>
       </c>
       <c r="S7">
-        <v>0.007915790225170758</v>
+        <v>0.005164808183369025</v>
       </c>
       <c r="T7">
-        <v>0.007915790225170759</v>
+        <v>0.005164808183369023</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>20</v>
       </c>
       <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G8">
+        <v>0.1290883333333333</v>
+      </c>
+      <c r="H8">
+        <v>0.387265</v>
+      </c>
+      <c r="I8">
+        <v>0.01713280695956549</v>
+      </c>
+      <c r="J8">
+        <v>0.01713280695956549</v>
+      </c>
+      <c r="K8">
         <v>2</v>
       </c>
-      <c r="F8">
+      <c r="L8">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G8">
-        <v>0.188156</v>
-      </c>
-      <c r="H8">
-        <v>0.564468</v>
-      </c>
-      <c r="I8">
-        <v>0.03221519991877542</v>
-      </c>
-      <c r="J8">
-        <v>0.03221519991877543</v>
-      </c>
-      <c r="K8">
-        <v>1</v>
-      </c>
-      <c r="L8">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="M8">
-        <v>0.039133</v>
+        <v>0.07259900000000001</v>
       </c>
       <c r="N8">
-        <v>0.117399</v>
+        <v>0.217797</v>
       </c>
       <c r="O8">
-        <v>0.00872147833139909</v>
+        <v>0.0162094769588191</v>
       </c>
       <c r="P8">
-        <v>0.00872147833139909</v>
+        <v>0.0162094769588191</v>
       </c>
       <c r="Q8">
-        <v>0.007363108748</v>
+        <v>0.009371683911666668</v>
       </c>
       <c r="R8">
-        <v>0.06626797873199999</v>
+        <v>0.08434515520500001</v>
       </c>
       <c r="S8">
-        <v>0.0002809641680332896</v>
+        <v>0.0002777138396509723</v>
       </c>
       <c r="T8">
-        <v>0.0002809641680332896</v>
+        <v>0.0002777138396509724</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,22 +968,22 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>0.188156</v>
+        <v>0.1290883333333333</v>
       </c>
       <c r="H9">
-        <v>0.564468</v>
+        <v>0.387265</v>
       </c>
       <c r="I9">
-        <v>0.03221519991877542</v>
+        <v>0.01713280695956549</v>
       </c>
       <c r="J9">
-        <v>0.03221519991877543</v>
+        <v>0.01713280695956549</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -998,22 +998,22 @@
         <v>12.561996</v>
       </c>
       <c r="O9">
-        <v>0.933220691088698</v>
+        <v>0.9349228167457665</v>
       </c>
       <c r="P9">
-        <v>0.9332206910886979</v>
+        <v>0.9349228167457664</v>
       </c>
       <c r="Q9">
-        <v>0.787871639792</v>
+        <v>0.5405357089933334</v>
       </c>
       <c r="R9">
-        <v>7.090844758128</v>
+        <v>4.86482138094</v>
       </c>
       <c r="S9">
-        <v>0.03006389113176017</v>
+        <v>0.01601785214139844</v>
       </c>
       <c r="T9">
-        <v>0.03006389113176017</v>
+        <v>0.01601785214139844</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,22 +1030,22 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>0.188156</v>
+        <v>0.1290883333333333</v>
       </c>
       <c r="H10">
-        <v>0.564468</v>
+        <v>0.387265</v>
       </c>
       <c r="I10">
-        <v>0.03221519991877542</v>
+        <v>0.01713280695956549</v>
       </c>
       <c r="J10">
-        <v>0.03221519991877543</v>
+        <v>0.01713280695956549</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.2605036666666666</v>
+        <v>0.2188686666666667</v>
       </c>
       <c r="N10">
-        <v>0.781511</v>
+        <v>0.656606</v>
       </c>
       <c r="O10">
-        <v>0.05805783057990301</v>
+        <v>0.04886770629541442</v>
       </c>
       <c r="P10">
-        <v>0.05805783057990301</v>
+        <v>0.04886770629541441</v>
       </c>
       <c r="Q10">
-        <v>0.04901532790533333</v>
+        <v>0.02825339139888889</v>
       </c>
       <c r="R10">
-        <v>0.441137951148</v>
+        <v>0.25428052259</v>
       </c>
       <c r="S10">
-        <v>0.001870344618981969</v>
+        <v>0.0008372409785160783</v>
       </c>
       <c r="T10">
-        <v>0.001870344618981969</v>
+        <v>0.0008372409785160783</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1098,46 +1098,46 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.6549346666666667</v>
+        <v>0.4975636666666667</v>
       </c>
       <c r="H11">
-        <v>1.964804</v>
+        <v>1.492691</v>
       </c>
       <c r="I11">
-        <v>0.1121348839282468</v>
+        <v>0.06603743367792279</v>
       </c>
       <c r="J11">
-        <v>0.1121348839282469</v>
+        <v>0.06603743367792278</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>0.039133</v>
+        <v>0.07259900000000001</v>
       </c>
       <c r="N11">
-        <v>0.117399</v>
+        <v>0.217797</v>
       </c>
       <c r="O11">
-        <v>0.00872147833139909</v>
+        <v>0.0162094769588191</v>
       </c>
       <c r="P11">
-        <v>0.00872147833139909</v>
+        <v>0.0162094769588191</v>
       </c>
       <c r="Q11">
-        <v>0.02562955831066667</v>
+        <v>0.03612262463633334</v>
       </c>
       <c r="R11">
-        <v>0.230666024796</v>
+        <v>0.325103621727</v>
       </c>
       <c r="S11">
-        <v>0.0009779819603741569</v>
+        <v>0.001070432259621834</v>
       </c>
       <c r="T11">
-        <v>0.0009779819603741571</v>
+        <v>0.001070432259621834</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.6549346666666667</v>
+        <v>0.4975636666666667</v>
       </c>
       <c r="H12">
-        <v>1.964804</v>
+        <v>1.492691</v>
       </c>
       <c r="I12">
-        <v>0.1121348839282468</v>
+        <v>0.06603743367792279</v>
       </c>
       <c r="J12">
-        <v>0.1121348839282469</v>
+        <v>0.06603743367792278</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1184,22 +1184,22 @@
         <v>12.561996</v>
       </c>
       <c r="O12">
-        <v>0.933220691088698</v>
+        <v>0.9349228167457665</v>
       </c>
       <c r="P12">
-        <v>0.9332206910886979</v>
+        <v>0.9349228167457664</v>
       </c>
       <c r="Q12">
-        <v>2.742428887642667</v>
+        <v>2.083464263470667</v>
       </c>
       <c r="R12">
-        <v>24.681859988784</v>
+        <v>18.751178371236</v>
       </c>
       <c r="S12">
-        <v>0.1046465938746694</v>
+        <v>0.06173990350482532</v>
       </c>
       <c r="T12">
-        <v>0.1046465938746695</v>
+        <v>0.0617399035048253</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.6549346666666667</v>
+        <v>0.4975636666666667</v>
       </c>
       <c r="H13">
-        <v>1.964804</v>
+        <v>1.492691</v>
       </c>
       <c r="I13">
-        <v>0.1121348839282468</v>
+        <v>0.06603743367792279</v>
       </c>
       <c r="J13">
-        <v>0.1121348839282469</v>
+        <v>0.06603743367792278</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1240,28 +1240,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.2605036666666666</v>
+        <v>0.2188686666666667</v>
       </c>
       <c r="N13">
-        <v>0.781511</v>
+        <v>0.656606</v>
       </c>
       <c r="O13">
-        <v>0.05805783057990301</v>
+        <v>0.04886770629541442</v>
       </c>
       <c r="P13">
-        <v>0.05805783057990301</v>
+        <v>0.04886770629541441</v>
       </c>
       <c r="Q13">
-        <v>0.1706128820937778</v>
+        <v>0.1089010963051111</v>
       </c>
       <c r="R13">
-        <v>1.535515938844</v>
+        <v>0.980109866746</v>
       </c>
       <c r="S13">
-        <v>0.006510308093203243</v>
+        <v>0.00322709791347564</v>
       </c>
       <c r="T13">
-        <v>0.006510308093203245</v>
+        <v>0.003227097913475639</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,46 +1284,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.3078316666666667</v>
+        <v>0.213213</v>
       </c>
       <c r="H14">
-        <v>0.923495</v>
+        <v>0.639639</v>
       </c>
       <c r="I14">
-        <v>0.05270551395117086</v>
+        <v>0.02829796524552828</v>
       </c>
       <c r="J14">
-        <v>0.05270551395117087</v>
+        <v>0.02829796524552828</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>0.039133</v>
+        <v>0.07259900000000001</v>
       </c>
       <c r="N14">
-        <v>0.117399</v>
+        <v>0.217797</v>
       </c>
       <c r="O14">
-        <v>0.00872147833139909</v>
+        <v>0.0162094769588191</v>
       </c>
       <c r="P14">
-        <v>0.00872147833139909</v>
+        <v>0.0162094769588191</v>
       </c>
       <c r="Q14">
-        <v>0.01204637661166667</v>
+        <v>0.015479050587</v>
       </c>
       <c r="R14">
-        <v>0.108417389505</v>
+        <v>0.139311455283</v>
       </c>
       <c r="S14">
-        <v>0.0004596699978703891</v>
+        <v>0.0004586952156288544</v>
       </c>
       <c r="T14">
-        <v>0.0004596699978703891</v>
+        <v>0.0004586952156288543</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.3078316666666667</v>
+        <v>0.213213</v>
       </c>
       <c r="H15">
-        <v>0.923495</v>
+        <v>0.639639</v>
       </c>
       <c r="I15">
-        <v>0.05270551395117086</v>
+        <v>0.02829796524552828</v>
       </c>
       <c r="J15">
-        <v>0.05270551395117087</v>
+        <v>0.02829796524552828</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1370,22 +1370,22 @@
         <v>12.561996</v>
       </c>
       <c r="O15">
-        <v>0.933220691088698</v>
+        <v>0.9349228167457665</v>
       </c>
       <c r="P15">
-        <v>0.9332206910886979</v>
+        <v>0.9349228167457664</v>
       </c>
       <c r="Q15">
-        <v>1.288993388446667</v>
+        <v>0.8927936177160001</v>
       </c>
       <c r="R15">
-        <v>11.60094049602</v>
+        <v>8.035142559443999</v>
       </c>
       <c r="S15">
-        <v>0.04918587615369668</v>
+        <v>0.0264564133755231</v>
       </c>
       <c r="T15">
-        <v>0.04918587615369668</v>
+        <v>0.0264564133755231</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.3078316666666667</v>
+        <v>0.213213</v>
       </c>
       <c r="H16">
-        <v>0.923495</v>
+        <v>0.639639</v>
       </c>
       <c r="I16">
-        <v>0.05270551395117086</v>
+        <v>0.02829796524552828</v>
       </c>
       <c r="J16">
-        <v>0.05270551395117087</v>
+        <v>0.02829796524552828</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.2605036666666666</v>
+        <v>0.2188686666666667</v>
       </c>
       <c r="N16">
-        <v>0.781511</v>
+        <v>0.656606</v>
       </c>
       <c r="O16">
-        <v>0.05805783057990301</v>
+        <v>0.04886770629541442</v>
       </c>
       <c r="P16">
-        <v>0.05805783057990301</v>
+        <v>0.04886770629541441</v>
       </c>
       <c r="Q16">
-        <v>0.08019127788277777</v>
+        <v>0.046665645026</v>
       </c>
       <c r="R16">
-        <v>0.7217215009449999</v>
+        <v>0.419990805234</v>
       </c>
       <c r="S16">
-        <v>0.003059967799603792</v>
+        <v>0.001382856654376321</v>
       </c>
       <c r="T16">
-        <v>0.003059967799603792</v>
+        <v>0.00138285665437632</v>
       </c>
     </row>
   </sheetData>
